--- a/DataTable/bin/Debug/Excel/Enum.xlsx
+++ b/DataTable/bin/Debug/Excel/Enum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MetaTrace\DataTable\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cpp\DataTable\DataTable\bin\Debug\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD7C09-B80D-473E-B66D-D7CBBAF1C76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05595E-F3D5-4D78-92F5-13EAA6A47715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2685" windowWidth="16740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="3870" windowWidth="16740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,113 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>element</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>illusory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>nohurt</t>
-  </si>
-  <si>
-    <t>recover</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>noskill</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>weak</t>
-  </si>
-  <si>
-    <t>diffuse</t>
-  </si>
-  <si>
-    <t>sneer</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>crack</t>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtifactPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>defend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
+    <t>job</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spirit</t>
+    <t>assassin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flight</t>
+    <t>sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auxiliary</t>
+    <t>magician</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A12" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,127 +396,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/bin/Debug/Excel/Enum.xlsx
+++ b/DataTable/bin/Debug/Excel/Enum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cpp\DataTable\DataTable\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MetaTrace\DataTable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E05595E-F3D5-4D78-92F5-13EAA6A47715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE5FEC3-5B1C-4777-9E6A-5E7CDD56E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7350" yWindow="3870" windowWidth="16740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,26 +25,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>illusory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>nohurt</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>noskill</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>sneer</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArtifactPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>defend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assassin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>magician</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auxiliary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleSword</t>
+  </si>
+  <si>
+    <t>DoubleSword</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Wand</t>
   </si>
 </sst>
 </file>
@@ -382,43 +489,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A6:A12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="3" max="4" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
